--- a/Planification of Data Science Projects.xlsx
+++ b/Planification of Data Science Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEMARTINEZSA\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SEMARTINEZSA\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983E3D23-F97D-42C6-9DCD-C9CB043C0765}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BF871BF-239E-4A5D-AFFF-5BDEC9969F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CE35FBF7-C399-4BDD-9DC1-87961F3B5ABE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>STEP</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Drop duplicated rows</t>
   </si>
   <si>
-    <t>SECOND DATA QUALITY CHECK</t>
-  </si>
-  <si>
     <t>Correct data type for each column</t>
   </si>
   <si>
@@ -1448,13 +1445,34 @@
   </si>
   <si>
     <t>Fix column names that are too long</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Ingest column names</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>- Chunking</t>
+  </si>
+  <si>
+    <t>- Values Replacement</t>
+  </si>
+  <si>
+    <t>- New variables creation</t>
+  </si>
+  <si>
+    <t>Show by screen all columns that have equal names and change them if the columns are actually different</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1862,13 +1880,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3024C47-F266-4817-A86B-CD2CCA2A9746}">
-  <dimension ref="A1:E154"/>
+  <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="98.77734375" style="1" customWidth="1"/>
@@ -1878,7 +1896,7 @@
     <col min="6" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,756 +1907,819 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="B12" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="B15" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3">
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="3" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" s="3" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="3" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="2:4">
+      <c r="D23" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="2:4">
-      <c r="B28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="2:4">
-      <c r="B29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="2:4">
-      <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="2:4">
-      <c r="B31" s="3" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:4">
-      <c r="B32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3">
-      <c r="B34" s="4" t="s">
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
-      <c r="B35" s="6" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="B36" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3">
-      <c r="B37" s="7" t="s">
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" s="7" t="s">
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
-      <c r="B39" s="7" t="s">
+    <row r="43" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
-      <c r="B40" s="7" t="s">
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="5"/>
+    </row>
+    <row r="45" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
-      <c r="B41" s="5"/>
-    </row>
-    <row r="42" spans="2:3">
-      <c r="B42" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="2:3">
-      <c r="B43" s="6" t="s">
+    <row r="47" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B48" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
-      <c r="B44" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="45" spans="2:3">
-      <c r="B45" s="6" t="s">
+    <row r="49" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
-      <c r="B46" s="8" t="s">
+    <row r="50" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B50" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="6" t="s">
+    <row r="51" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="8" t="s">
+    <row r="52" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B52" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
-      <c r="B49" s="6" t="s">
+    <row r="53" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
-      <c r="B50" s="8" t="s">
+    <row r="54" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="8" t="s">
+    <row r="55" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" s="6" t="s">
+    <row r="56" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" s="8" t="s">
+    <row r="57" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
-      <c r="B54" s="6" t="s">
+    <row r="58" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
-      <c r="B55" s="8" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="5"/>
+    </row>
+    <row r="60" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B61" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
-      <c r="B56" s="5"/>
-    </row>
-    <row r="57" spans="2:2">
-      <c r="B57" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="6" t="s">
+    <row r="62" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
-      <c r="B59" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2">
-      <c r="B60" s="8" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="5"/>
+    </row>
+    <row r="65" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B65" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
-      <c r="B61" s="5"/>
-    </row>
-    <row r="62" spans="2:2">
-      <c r="B62" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="6" t="s">
+    <row r="67" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B68" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
-      <c r="B64" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="6" t="s">
+    <row r="69" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="7" t="s">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="5"/>
+    </row>
+    <row r="71" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="5"/>
-    </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="6" t="s">
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B74" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="8" t="s">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="5"/>
+    </row>
+    <row r="76" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="5"/>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="6" t="s">
+    <row r="77" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B77" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="8" t="s">
+    <row r="78" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B78" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="8" t="s">
+    <row r="79" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="6" t="s">
+    <row r="80" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="8" t="s">
+    <row r="81" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="6" t="s">
+    <row r="82" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="8" t="s">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B84" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="5"/>
-    </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="6" t="s">
+    <row r="85" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B85" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="8" t="s">
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="5"/>
+    </row>
+    <row r="87" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B87" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B88" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="5"/>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
+    <row r="89" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B90" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="5"/>
+    </row>
+    <row r="92" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B92" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B93" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="5"/>
-    </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="6" t="s">
+    <row r="94" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B94" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B95" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="6" t="s">
+    <row r="96" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B96" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="8" t="s">
+    <row r="97" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B97" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="8" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="5"/>
+    </row>
+    <row r="99" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B99" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="5"/>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="6" t="s">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="5"/>
+    </row>
+    <row r="101" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B101" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="5"/>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="6" t="s">
+    <row r="102" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B102" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="6" t="s">
+    <row r="103" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B103" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="6" t="s">
+    <row r="104" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B104" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="6" t="s">
+    <row r="105" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B105" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="6" t="s">
+    <row r="106" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B106" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="6" t="s">
+    <row r="107" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B107" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="6" t="s">
+    <row r="108" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B108" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="6" t="s">
+    <row r="109" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B109" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="6" t="s">
+    <row r="110" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B110" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="6" t="s">
+    <row r="111" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B111" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="6" t="s">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="5"/>
+    </row>
+    <row r="113" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B113" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="5"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="6" t="s">
+    <row r="114" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B114" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="6" t="s">
+    <row r="115" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B115" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="6" t="s">
+    <row r="116" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B116" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="6" t="s">
+    <row r="117" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B117" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="6" t="s">
+    <row r="118" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B118" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="6" t="s">
+    <row r="119" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B119" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="6" t="s">
+    <row r="120" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B120" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="6" t="s">
+    <row r="121" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B121" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="6" t="s">
+    <row r="122" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B122" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="6" t="s">
+    <row r="123" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B123" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="6" t="s">
+    <row r="124" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B124" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="6" t="s">
+    <row r="125" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B125" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="6" t="s">
+    <row r="126" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B126" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="6" t="s">
+    <row r="127" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B127" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="6" t="s">
+    <row r="128" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B128" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="6" t="s">
+    <row r="129" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B129" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="6" t="s">
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="5"/>
+    </row>
+    <row r="131" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B131" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="5"/>
-    </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="6" t="s">
+    <row r="132" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B132" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="8" t="s">
+    <row r="133" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B133" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="5"/>
+    </row>
+    <row r="135" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B135" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B136" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="5"/>
-    </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="6" t="s">
+    <row r="137" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B137" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B138" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="6" t="s">
+    <row r="139" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B139" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="8" t="s">
+    <row r="140" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B140" s="6" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="6" t="s">
+    <row r="141" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B141" s="6" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="6" t="s">
+    <row r="142" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B142" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="8" t="s">
+    <row r="143" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B143" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="6" t="s">
+    <row r="144" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B144" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="8" t="s">
+    <row r="145" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B145" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="8" t="s">
+    <row r="146" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B146" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="6" t="s">
+    <row r="147" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B147" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="8" t="s">
+    <row r="148" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B148" s="6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="6" t="s">
+    <row r="149" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B149" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="5"/>
+    </row>
+    <row r="151" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B151" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B152" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="5"/>
-    </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="6" t="s">
+    <row r="153" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B153" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B154" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="6" t="s">
+    <row r="155" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B155" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="8" t="s">
+    <row r="156" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B156" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="8" t="s">
+    <row r="157" spans="2:2" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B157" s="6" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="6" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
